--- a/Extracted/Extractionuscita_fattura_12.pdf.xlsx
+++ b/Extracted/Extractionuscita_fattura_12.pdf.xlsx
@@ -24,8 +24,7 @@
 "Last Name","2"</x:t>
   </x:si>
   <x:si>
-    <x:t>Key,Value
-"Value",""</x:t>
+    <x:t>409.08</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -393,7 +392,7 @@
       <x:c r="B1" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
+      <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
